--- a/Study 3/Shocks/GCAM/NDC_LTT - 2090.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2090.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.02750518740185899</v>
+        <v>0.027505187401859</v>
       </c>
     </row>
     <row r="3">
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.09087544128980578</v>
+        <v>0.09087544128980576</v>
       </c>
     </row>
     <row r="4">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.04944921992586927</v>
+        <v>0.04944921992586929</v>
       </c>
     </row>
     <row r="6">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.05789129435271296</v>
+        <v>0.05789129435271297</v>
       </c>
     </row>
     <row r="7">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.003223224537371074</v>
+        <v>0.003223224537371075</v>
       </c>
     </row>
     <row r="11">
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.008682299816765243</v>
+        <v>0.008682299816765241</v>
       </c>
     </row>
     <row r="12">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.06788128441900569</v>
+        <v>0.06788128441900571</v>
       </c>
     </row>
     <row r="13">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.1793936267551731</v>
+        <v>0.1793936267551732</v>
       </c>
     </row>
     <row r="14">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.002815583007050584</v>
+        <v>0.002815583007050585</v>
       </c>
     </row>
     <row r="15">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.02303536421883831</v>
+        <v>0.02303536421883832</v>
       </c>
     </row>
     <row r="18">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.06179939667711829</v>
+        <v>0.06179939667711828</v>
       </c>
     </row>
     <row r="20">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.05447321908831458</v>
+        <v>0.05447321908831459</v>
       </c>
     </row>
     <row r="21">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.5305602643298909</v>
+        <v>0.530560264329891</v>
       </c>
     </row>
     <row r="23">
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.2498326778134232</v>
+        <v>0.2498326778134231</v>
       </c>
     </row>
     <row r="24">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.1814602446015704</v>
+        <v>0.1814602446015705</v>
       </c>
     </row>
     <row r="25">
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.001526147807670498</v>
+        <v>0.001526147807670497</v>
       </c>
     </row>
     <row r="28">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.0124574824794639</v>
+        <v>0.01245748247946391</v>
       </c>
     </row>
     <row r="30">
@@ -12602,7 +12602,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.03278710768268358</v>
+        <v>0.03278710768268359</v>
       </c>
     </row>
     <row r="33">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.05537275266153254</v>
+        <v>0.05537275266153256</v>
       </c>
     </row>
     <row r="34">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.08889205355537884</v>
+        <v>0.08889205355537885</v>
       </c>
     </row>
     <row r="39">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.2539687406844228</v>
+        <v>0.2539687406844229</v>
       </c>
     </row>
     <row r="41">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.4201152841592773</v>
+        <v>0.4201152841592774</v>
       </c>
     </row>
   </sheetData>
